--- a/source/DocSource/SmokeTestArch.xlsx
+++ b/source/DocSource/SmokeTestArch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dasblog-core\source\DocSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA228277-225B-498B-8970-59E6324B5986}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB63DAD5-7EEF-4D8E-A082-C55FC639CF61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="6705" xr2:uid="{A316D3C8-570E-4CC4-8439-B962472ED26E}"/>
   </bookViews>
@@ -209,7 +209,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>FirefoxDriver.dll</a:t>
+            <a:t>Driver</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/source/DocSource/SmokeTestArch.xlsx
+++ b/source/DocSource/SmokeTestArch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dasblog-core\source\DocSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB63DAD5-7EEF-4D8E-A082-C55FC639CF61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A9575C-4FEB-429E-A022-16FDEFA2987A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="6705" xr2:uid="{A316D3C8-570E-4CC4-8439-B962472ED26E}"/>
   </bookViews>
@@ -55,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,7 +110,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -134,11 +138,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
+            <a:rPr lang="en-GB" sz="1400" i="0"/>
             <a:t>DasBlog.SmokeTest</a:t>
           </a:r>
         </a:p>
@@ -179,7 +184,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -249,7 +257,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -274,11 +285,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
+            <a:rPr lang="en-GB" sz="1400"/>
             <a:t>GeckoDriver.exe</a:t>
           </a:r>
         </a:p>
@@ -319,7 +331,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -344,11 +359,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
+            <a:rPr lang="en-GB" sz="1400"/>
             <a:t>Firefox Browser</a:t>
           </a:r>
         </a:p>
@@ -358,8 +374,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -382,14 +398,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="3267075"/>
-          <a:ext cx="1485900" cy="962025"/>
+          <a:off x="552450" y="2362200"/>
+          <a:ext cx="1733550" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -414,11 +433,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
+            <a:rPr lang="en-GB" sz="1400"/>
             <a:t>DasBlog.Web Server</a:t>
           </a:r>
         </a:p>
@@ -432,13 +451,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>242888</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -457,9 +476,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2833688" y="2324101"/>
-          <a:ext cx="4762" cy="942974"/>
+        <a:xfrm flipH="1">
+          <a:off x="1419225" y="1419226"/>
+          <a:ext cx="119063" cy="942974"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1662,15 +1681,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849CA8A-97DE-496E-A572-5FA0386597DD}">
-  <dimension ref="A1"/>
+  <dimension ref="E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/source/DocSource/SmokeTestArch.xlsx
+++ b/source/DocSource/SmokeTestArch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dasblog-core\source\DocSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A9575C-4FEB-429E-A022-16FDEFA2987A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B25147-308C-44AE-9D77-221E0E84C191}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="6705" xr2:uid="{A316D3C8-570E-4CC4-8439-B962472ED26E}"/>
   </bookViews>
@@ -332,8 +332,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
